--- a/AAII_Financials/Yearly/ANZGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANZGY_YR_FIN.xlsx
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15558300</v>
+        <v>15622100</v>
       </c>
       <c r="E8" s="3">
-        <v>12869600</v>
+        <v>12922300</v>
       </c>
       <c r="F8" s="3">
-        <v>16096700</v>
+        <v>16162700</v>
       </c>
       <c r="G8" s="3">
-        <v>20479700</v>
+        <v>20563700</v>
       </c>
       <c r="H8" s="3">
-        <v>19985500</v>
+        <v>20067400</v>
       </c>
       <c r="I8" s="3">
-        <v>19190100</v>
+        <v>19268700</v>
       </c>
       <c r="J8" s="3">
-        <v>19737700</v>
+        <v>19818600</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -886,25 +886,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-380900</v>
+        <v>-382500</v>
       </c>
       <c r="E15" s="3">
-        <v>-420400</v>
+        <v>-422200</v>
       </c>
       <c r="F15" s="3">
-        <v>-565400</v>
+        <v>-567700</v>
       </c>
       <c r="G15" s="3">
-        <v>-457300</v>
+        <v>-459200</v>
       </c>
       <c r="H15" s="3">
-        <v>-652400</v>
+        <v>-655100</v>
       </c>
       <c r="I15" s="3">
-        <v>-475100</v>
+        <v>-477100</v>
       </c>
       <c r="J15" s="3">
-        <v>-972000</v>
+        <v>-976000</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5603500</v>
+        <v>5626400</v>
       </c>
       <c r="E17" s="3">
-        <v>3163900</v>
+        <v>3176800</v>
       </c>
       <c r="F17" s="3">
-        <v>8642800</v>
+        <v>8678200</v>
       </c>
       <c r="G17" s="3">
-        <v>11553600</v>
+        <v>11600900</v>
       </c>
       <c r="H17" s="3">
-        <v>10874200</v>
+        <v>10918700</v>
       </c>
       <c r="I17" s="3">
-        <v>10176900</v>
+        <v>10218600</v>
       </c>
       <c r="J17" s="3">
-        <v>11061300</v>
+        <v>11106600</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9954900</v>
+        <v>9995600</v>
       </c>
       <c r="E18" s="3">
-        <v>9705800</v>
+        <v>9745500</v>
       </c>
       <c r="F18" s="3">
-        <v>7453900</v>
+        <v>7484500</v>
       </c>
       <c r="G18" s="3">
-        <v>8926200</v>
+        <v>8962700</v>
       </c>
       <c r="H18" s="3">
-        <v>9111300</v>
+        <v>9148700</v>
       </c>
       <c r="I18" s="3">
-        <v>9013100</v>
+        <v>9050100</v>
       </c>
       <c r="J18" s="3">
-        <v>8676400</v>
+        <v>8711900</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3312800</v>
+        <v>-3326400</v>
       </c>
       <c r="E20" s="3">
-        <v>-3816900</v>
+        <v>-3832600</v>
       </c>
       <c r="F20" s="3">
-        <v>-3818900</v>
+        <v>-3834600</v>
       </c>
       <c r="G20" s="3">
-        <v>-3047900</v>
+        <v>-3060400</v>
       </c>
       <c r="H20" s="3">
-        <v>-2590500</v>
+        <v>-2601100</v>
       </c>
       <c r="I20" s="3">
-        <v>-2928600</v>
+        <v>-2940600</v>
       </c>
       <c r="J20" s="3">
-        <v>-3287100</v>
+        <v>-3300600</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,22 +1017,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7305900</v>
+        <v>7340500</v>
       </c>
       <c r="E21" s="3">
-        <v>6604700</v>
+        <v>6636800</v>
       </c>
       <c r="F21" s="3">
-        <v>4551200</v>
+        <v>4576200</v>
       </c>
       <c r="G21" s="3">
-        <v>6451900</v>
+        <v>6482400</v>
       </c>
       <c r="H21" s="3">
-        <v>7310500</v>
+        <v>7345900</v>
       </c>
       <c r="I21" s="3">
-        <v>6724700</v>
+        <v>6756700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6642100</v>
+        <v>6669300</v>
       </c>
       <c r="E23" s="3">
-        <v>5888800</v>
+        <v>5913000</v>
       </c>
       <c r="F23" s="3">
-        <v>3635000</v>
+        <v>3649900</v>
       </c>
       <c r="G23" s="3">
-        <v>5878300</v>
+        <v>5902400</v>
       </c>
       <c r="H23" s="3">
-        <v>6520800</v>
+        <v>6547500</v>
       </c>
       <c r="I23" s="3">
-        <v>6084500</v>
+        <v>6109500</v>
       </c>
       <c r="J23" s="3">
-        <v>5389300</v>
+        <v>5411400</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1937500</v>
+        <v>1945400</v>
       </c>
       <c r="E24" s="3">
-        <v>1816200</v>
+        <v>1823600</v>
       </c>
       <c r="F24" s="3">
-        <v>1212600</v>
+        <v>1217500</v>
       </c>
       <c r="G24" s="3">
-        <v>1719300</v>
+        <v>1726400</v>
       </c>
       <c r="H24" s="3">
-        <v>1834700</v>
+        <v>1842200</v>
       </c>
       <c r="I24" s="3">
-        <v>1894000</v>
+        <v>1901700</v>
       </c>
       <c r="J24" s="3">
-        <v>1619800</v>
+        <v>1626500</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4704600</v>
+        <v>4723900</v>
       </c>
       <c r="E26" s="3">
-        <v>4072600</v>
+        <v>4089300</v>
       </c>
       <c r="F26" s="3">
-        <v>2422500</v>
+        <v>2432400</v>
       </c>
       <c r="G26" s="3">
-        <v>4158900</v>
+        <v>4176000</v>
       </c>
       <c r="H26" s="3">
-        <v>4686100</v>
+        <v>4705300</v>
       </c>
       <c r="I26" s="3">
-        <v>4190600</v>
+        <v>4207800</v>
       </c>
       <c r="J26" s="3">
-        <v>3769500</v>
+        <v>3784900</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4703900</v>
+        <v>4723200</v>
       </c>
       <c r="E27" s="3">
-        <v>4072000</v>
+        <v>4088600</v>
       </c>
       <c r="F27" s="3">
-        <v>2421800</v>
+        <v>2431700</v>
       </c>
       <c r="G27" s="3">
-        <v>4149100</v>
+        <v>4166100</v>
       </c>
       <c r="H27" s="3">
-        <v>4675600</v>
+        <v>4694800</v>
       </c>
       <c r="I27" s="3">
-        <v>4180700</v>
+        <v>4197800</v>
       </c>
       <c r="J27" s="3">
-        <v>3762200</v>
+        <v>3777600</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1233,22 +1233,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-12500</v>
+        <v>-12600</v>
       </c>
       <c r="E29" s="3">
         <v>-11200</v>
       </c>
       <c r="F29" s="3">
-        <v>-64600</v>
+        <v>-64800</v>
       </c>
       <c r="G29" s="3">
-        <v>-226000</v>
+        <v>-227000</v>
       </c>
       <c r="H29" s="3">
-        <v>-458000</v>
+        <v>-459900</v>
       </c>
       <c r="I29" s="3">
-        <v>40900</v>
+        <v>41000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3312800</v>
+        <v>3326400</v>
       </c>
       <c r="E32" s="3">
-        <v>3816900</v>
+        <v>3832600</v>
       </c>
       <c r="F32" s="3">
-        <v>3818900</v>
+        <v>3834600</v>
       </c>
       <c r="G32" s="3">
-        <v>3047900</v>
+        <v>3060400</v>
       </c>
       <c r="H32" s="3">
-        <v>2590500</v>
+        <v>2601100</v>
       </c>
       <c r="I32" s="3">
-        <v>2928600</v>
+        <v>2940600</v>
       </c>
       <c r="J32" s="3">
-        <v>3287100</v>
+        <v>3300600</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4691400</v>
+        <v>4710600</v>
       </c>
       <c r="E33" s="3">
-        <v>4060800</v>
+        <v>4077400</v>
       </c>
       <c r="F33" s="3">
-        <v>2357200</v>
+        <v>2366900</v>
       </c>
       <c r="G33" s="3">
-        <v>3923000</v>
+        <v>3939100</v>
       </c>
       <c r="H33" s="3">
-        <v>4217600</v>
+        <v>4234900</v>
       </c>
       <c r="I33" s="3">
-        <v>4221600</v>
+        <v>4238900</v>
       </c>
       <c r="J33" s="3">
-        <v>3762200</v>
+        <v>3777600</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4691400</v>
+        <v>4710600</v>
       </c>
       <c r="E35" s="3">
-        <v>4060800</v>
+        <v>4077400</v>
       </c>
       <c r="F35" s="3">
-        <v>2357200</v>
+        <v>2366900</v>
       </c>
       <c r="G35" s="3">
-        <v>3923000</v>
+        <v>3939100</v>
       </c>
       <c r="H35" s="3">
-        <v>4217600</v>
+        <v>4234900</v>
       </c>
       <c r="I35" s="3">
-        <v>4221600</v>
+        <v>4238900</v>
       </c>
       <c r="J35" s="3">
-        <v>3762200</v>
+        <v>3777600</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>107283000</v>
+        <v>107722000</v>
       </c>
       <c r="E41" s="3">
-        <v>97037800</v>
+        <v>97435300</v>
       </c>
       <c r="F41" s="3">
-        <v>56592300</v>
+        <v>56824100</v>
       </c>
       <c r="G41" s="3">
-        <v>44960900</v>
+        <v>45145100</v>
       </c>
       <c r="H41" s="3">
-        <v>99613100</v>
+        <v>100021000</v>
       </c>
       <c r="I41" s="3">
-        <v>40413200</v>
+        <v>40578800</v>
       </c>
       <c r="J41" s="3">
-        <v>39393000</v>
+        <v>39554400</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1507,25 +1507,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>101557000</v>
+        <v>101973000</v>
       </c>
       <c r="E42" s="3">
-        <v>72596100</v>
+        <v>72893500</v>
       </c>
       <c r="F42" s="3">
-        <v>155626000</v>
+        <v>156264000</v>
       </c>
       <c r="G42" s="3">
-        <v>134516000</v>
+        <v>135068000</v>
       </c>
       <c r="H42" s="3">
-        <v>95926700</v>
+        <v>96319700</v>
       </c>
       <c r="I42" s="3">
-        <v>90083300</v>
+        <v>90452400</v>
       </c>
       <c r="J42" s="3">
-        <v>111177000</v>
+        <v>111632000</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1437300</v>
+        <v>1443200</v>
       </c>
       <c r="E47" s="3">
-        <v>1299500</v>
+        <v>1304900</v>
       </c>
       <c r="F47" s="3">
-        <v>1426100</v>
+        <v>1431900</v>
       </c>
       <c r="G47" s="3">
-        <v>1948700</v>
+        <v>1956600</v>
       </c>
       <c r="H47" s="3">
-        <v>1682400</v>
+        <v>1689300</v>
       </c>
       <c r="I47" s="3">
-        <v>1481400</v>
+        <v>1487500</v>
       </c>
       <c r="J47" s="3">
-        <v>2815200</v>
+        <v>2826800</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2381000</v>
+        <v>2390700</v>
       </c>
       <c r="E48" s="3">
-        <v>1801700</v>
+        <v>1809100</v>
       </c>
       <c r="F48" s="3">
-        <v>1985600</v>
+        <v>1993700</v>
       </c>
       <c r="G48" s="3">
-        <v>1267900</v>
+        <v>1273100</v>
       </c>
       <c r="H48" s="3">
-        <v>1207900</v>
+        <v>1212900</v>
       </c>
       <c r="I48" s="3">
-        <v>1294900</v>
+        <v>1300200</v>
       </c>
       <c r="J48" s="3">
-        <v>1453100</v>
+        <v>1459000</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2554900</v>
+        <v>2565400</v>
       </c>
       <c r="E49" s="3">
-        <v>2717700</v>
+        <v>2728900</v>
       </c>
       <c r="F49" s="3">
-        <v>2885800</v>
+        <v>2897600</v>
       </c>
       <c r="G49" s="3">
-        <v>3203400</v>
+        <v>3216500</v>
       </c>
       <c r="H49" s="3">
-        <v>6497700</v>
+        <v>6524400</v>
       </c>
       <c r="I49" s="3">
-        <v>4593200</v>
+        <v>4612000</v>
       </c>
       <c r="J49" s="3">
-        <v>5055800</v>
+        <v>5076600</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2230100</v>
+        <v>2239200</v>
       </c>
       <c r="E52" s="3">
-        <v>1541400</v>
+        <v>1547700</v>
       </c>
       <c r="F52" s="3">
-        <v>1399700</v>
+        <v>1405500</v>
       </c>
       <c r="G52" s="3">
-        <v>2100200</v>
+        <v>2108800</v>
       </c>
       <c r="H52" s="3">
-        <v>29700500</v>
+        <v>29822200</v>
       </c>
       <c r="I52" s="3">
-        <v>5697100</v>
+        <v>5720400</v>
       </c>
       <c r="J52" s="3">
-        <v>410600</v>
+        <v>412200</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>715495000</v>
+        <v>718427000</v>
       </c>
       <c r="E54" s="3">
-        <v>645067000</v>
+        <v>647710000</v>
       </c>
       <c r="F54" s="3">
-        <v>686867000</v>
+        <v>689681000</v>
       </c>
       <c r="G54" s="3">
-        <v>646569000</v>
+        <v>649218000</v>
       </c>
       <c r="H54" s="3">
-        <v>621557000</v>
+        <v>624104000</v>
       </c>
       <c r="I54" s="3">
-        <v>591338000</v>
+        <v>593761000</v>
       </c>
       <c r="J54" s="3">
-        <v>602899000</v>
+        <v>605369000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6481300</v>
+        <v>6507800</v>
       </c>
       <c r="E57" s="3">
-        <v>5698400</v>
+        <v>5721700</v>
       </c>
       <c r="F57" s="3">
-        <v>6015400</v>
+        <v>6040000</v>
       </c>
       <c r="G57" s="3">
-        <v>5250900</v>
+        <v>5272400</v>
       </c>
       <c r="H57" s="3">
-        <v>4543100</v>
+        <v>4561800</v>
       </c>
       <c r="I57" s="3">
-        <v>5502700</v>
+        <v>5525200</v>
       </c>
       <c r="J57" s="3">
-        <v>1069600</v>
+        <v>1073900</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>546300</v>
+        <v>548500</v>
       </c>
       <c r="E59" s="3">
-        <v>276100</v>
+        <v>277300</v>
       </c>
       <c r="F59" s="3">
-        <v>230000</v>
+        <v>230900</v>
       </c>
       <c r="G59" s="3">
-        <v>171300</v>
+        <v>172000</v>
       </c>
       <c r="H59" s="3">
-        <v>197700</v>
+        <v>198500</v>
       </c>
       <c r="I59" s="3">
-        <v>158800</v>
+        <v>159500</v>
       </c>
       <c r="J59" s="3">
-        <v>2097600</v>
+        <v>2106200</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>61770700</v>
+        <v>62023800</v>
       </c>
       <c r="E61" s="3">
-        <v>66594600</v>
+        <v>66867400</v>
       </c>
       <c r="F61" s="3">
-        <v>78861200</v>
+        <v>79184300</v>
       </c>
       <c r="G61" s="3">
-        <v>85466400</v>
+        <v>85816500</v>
       </c>
       <c r="H61" s="3">
-        <v>79857000</v>
+        <v>80184100</v>
       </c>
       <c r="I61" s="3">
-        <v>71154200</v>
+        <v>71445700</v>
       </c>
       <c r="J61" s="3">
-        <v>75496400</v>
+        <v>75805700</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1650100</v>
+        <v>1656900</v>
       </c>
       <c r="E62" s="3">
-        <v>1901900</v>
+        <v>1909700</v>
       </c>
       <c r="F62" s="3">
-        <v>2145000</v>
+        <v>2153800</v>
       </c>
       <c r="G62" s="3">
-        <v>1897300</v>
+        <v>1905000</v>
       </c>
       <c r="H62" s="3">
-        <v>2661700</v>
+        <v>2672600</v>
       </c>
       <c r="I62" s="3">
-        <v>932500</v>
+        <v>936300</v>
       </c>
       <c r="J62" s="3">
-        <v>979900</v>
+        <v>983900</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>672063000</v>
+        <v>674816000</v>
       </c>
       <c r="E66" s="3">
-        <v>603112000</v>
+        <v>605583000</v>
       </c>
       <c r="F66" s="3">
-        <v>646478000</v>
+        <v>649127000</v>
       </c>
       <c r="G66" s="3">
-        <v>606513000</v>
+        <v>608998000</v>
       </c>
       <c r="H66" s="3">
-        <v>582501000</v>
+        <v>584888000</v>
       </c>
       <c r="I66" s="3">
-        <v>552484000</v>
+        <v>554747000</v>
       </c>
       <c r="J66" s="3">
-        <v>564797000</v>
+        <v>567111000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26209700</v>
+        <v>26317100</v>
       </c>
       <c r="E72" s="3">
-        <v>24058100</v>
+        <v>24156700</v>
       </c>
       <c r="F72" s="3">
-        <v>21956600</v>
+        <v>22046500</v>
       </c>
       <c r="G72" s="3">
-        <v>21569700</v>
+        <v>21658100</v>
       </c>
       <c r="H72" s="3">
-        <v>20961500</v>
+        <v>21047400</v>
       </c>
       <c r="I72" s="3">
-        <v>19702800</v>
+        <v>19783500</v>
       </c>
       <c r="J72" s="3">
-        <v>18472400</v>
+        <v>18548100</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43432700</v>
+        <v>43610700</v>
       </c>
       <c r="E76" s="3">
-        <v>41955200</v>
+        <v>42127100</v>
       </c>
       <c r="F76" s="3">
-        <v>40388100</v>
+        <v>40553600</v>
       </c>
       <c r="G76" s="3">
-        <v>40056000</v>
+        <v>40220100</v>
       </c>
       <c r="H76" s="3">
-        <v>39055600</v>
+        <v>39215700</v>
       </c>
       <c r="I76" s="3">
-        <v>38854000</v>
+        <v>39013200</v>
       </c>
       <c r="J76" s="3">
-        <v>38102100</v>
+        <v>38258200</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4691400</v>
+        <v>4710600</v>
       </c>
       <c r="E81" s="3">
-        <v>4060800</v>
+        <v>4077400</v>
       </c>
       <c r="F81" s="3">
-        <v>2357200</v>
+        <v>2366900</v>
       </c>
       <c r="G81" s="3">
-        <v>3923000</v>
+        <v>3939100</v>
       </c>
       <c r="H81" s="3">
-        <v>4217600</v>
+        <v>4234900</v>
       </c>
       <c r="I81" s="3">
-        <v>4221600</v>
+        <v>4238900</v>
       </c>
       <c r="J81" s="3">
-        <v>3762200</v>
+        <v>3777600</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,22 +2509,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>664300</v>
+        <v>667000</v>
       </c>
       <c r="E83" s="3">
-        <v>716300</v>
+        <v>719300</v>
       </c>
       <c r="F83" s="3">
-        <v>916700</v>
+        <v>920400</v>
       </c>
       <c r="G83" s="3">
-        <v>574000</v>
+        <v>576300</v>
       </c>
       <c r="H83" s="3">
-        <v>790100</v>
+        <v>793400</v>
       </c>
       <c r="I83" s="3">
-        <v>640500</v>
+        <v>643200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13296000</v>
+        <v>13350500</v>
       </c>
       <c r="E89" s="3">
-        <v>28878700</v>
+        <v>28997000</v>
       </c>
       <c r="F89" s="3">
-        <v>26545800</v>
+        <v>26654600</v>
       </c>
       <c r="G89" s="3">
-        <v>-2998500</v>
+        <v>-3010700</v>
       </c>
       <c r="H89" s="3">
-        <v>6963000</v>
+        <v>6991500</v>
       </c>
       <c r="I89" s="3">
-        <v>15847000</v>
+        <v>15911900</v>
       </c>
       <c r="J89" s="3">
-        <v>7144200</v>
+        <v>7173500</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2729,7 +2729,7 @@
         <v>5</v>
       </c>
       <c r="J91" s="3">
-        <v>-222100</v>
+        <v>-223000</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1197400</v>
+        <v>-1202300</v>
       </c>
       <c r="E94" s="3">
-        <v>6760000</v>
+        <v>6787700</v>
       </c>
       <c r="F94" s="3">
-        <v>-7555400</v>
+        <v>-7586400</v>
       </c>
       <c r="G94" s="3">
-        <v>-135800</v>
+        <v>-136300</v>
       </c>
       <c r="H94" s="3">
-        <v>109400</v>
+        <v>109800</v>
       </c>
       <c r="I94" s="3">
-        <v>-8455000</v>
+        <v>-8489600</v>
       </c>
       <c r="J94" s="3">
-        <v>-9496200</v>
+        <v>-9535100</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2493700</v>
+        <v>-2503900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1867600</v>
+        <v>-1875300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1885400</v>
+        <v>-1893100</v>
       </c>
       <c r="G96" s="3">
-        <v>-2946400</v>
+        <v>-2958500</v>
       </c>
       <c r="H96" s="3">
-        <v>-3007000</v>
+        <v>-3019300</v>
       </c>
       <c r="I96" s="3">
-        <v>-2890400</v>
+        <v>-2902200</v>
       </c>
       <c r="J96" s="3">
-        <v>-3007700</v>
+        <v>-3020000</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1545400</v>
+        <v>-1551700</v>
       </c>
       <c r="E100" s="3">
-        <v>-6373800</v>
+        <v>-6400000</v>
       </c>
       <c r="F100" s="3">
-        <v>-284700</v>
+        <v>-285900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1819500</v>
+        <v>-1827000</v>
       </c>
       <c r="H100" s="3">
-        <v>1726600</v>
+        <v>1733700</v>
       </c>
       <c r="I100" s="3">
-        <v>-4443000</v>
+        <v>-4461200</v>
       </c>
       <c r="J100" s="3">
-        <v>1290300</v>
+        <v>1295600</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,25 +2967,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>565400</v>
+        <v>567700</v>
       </c>
       <c r="E101" s="3">
-        <v>-705800</v>
+        <v>-708700</v>
       </c>
       <c r="F101" s="3">
-        <v>-1372700</v>
+        <v>-1378300</v>
       </c>
       <c r="G101" s="3">
-        <v>2750700</v>
+        <v>2761900</v>
       </c>
       <c r="H101" s="3">
-        <v>2348700</v>
+        <v>2358300</v>
       </c>
       <c r="I101" s="3">
-        <v>-1744400</v>
+        <v>-1751500</v>
       </c>
       <c r="J101" s="3">
-        <v>-953600</v>
+        <v>-957500</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11118600</v>
+        <v>11164200</v>
       </c>
       <c r="E102" s="3">
-        <v>28559100</v>
+        <v>28676100</v>
       </c>
       <c r="F102" s="3">
-        <v>17333000</v>
+        <v>17404000</v>
       </c>
       <c r="G102" s="3">
-        <v>-2203000</v>
+        <v>-2212100</v>
       </c>
       <c r="H102" s="3">
-        <v>11147600</v>
+        <v>11193300</v>
       </c>
       <c r="I102" s="3">
-        <v>1204700</v>
+        <v>1209600</v>
       </c>
       <c r="J102" s="3">
-        <v>-2015200</v>
+        <v>-2023500</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/ANZGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANZGY_YR_FIN.xlsx
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15622100</v>
+        <v>15305700</v>
       </c>
       <c r="E8" s="3">
-        <v>12922300</v>
+        <v>12660700</v>
       </c>
       <c r="F8" s="3">
-        <v>16162700</v>
+        <v>15835400</v>
       </c>
       <c r="G8" s="3">
-        <v>20563700</v>
+        <v>20147200</v>
       </c>
       <c r="H8" s="3">
-        <v>20067400</v>
+        <v>19661000</v>
       </c>
       <c r="I8" s="3">
-        <v>19268700</v>
+        <v>18878500</v>
       </c>
       <c r="J8" s="3">
-        <v>19818600</v>
+        <v>19417200</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -886,25 +886,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-382500</v>
+        <v>-374700</v>
       </c>
       <c r="E15" s="3">
-        <v>-422200</v>
+        <v>-413600</v>
       </c>
       <c r="F15" s="3">
-        <v>-567700</v>
+        <v>-556200</v>
       </c>
       <c r="G15" s="3">
-        <v>-459200</v>
+        <v>-449900</v>
       </c>
       <c r="H15" s="3">
-        <v>-655100</v>
+        <v>-641800</v>
       </c>
       <c r="I15" s="3">
-        <v>-477100</v>
+        <v>-467400</v>
       </c>
       <c r="J15" s="3">
-        <v>-976000</v>
+        <v>-956200</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5626400</v>
+        <v>5512500</v>
       </c>
       <c r="E17" s="3">
-        <v>3176800</v>
+        <v>3112500</v>
       </c>
       <c r="F17" s="3">
-        <v>8678200</v>
+        <v>8502500</v>
       </c>
       <c r="G17" s="3">
-        <v>11600900</v>
+        <v>11366000</v>
       </c>
       <c r="H17" s="3">
-        <v>10918700</v>
+        <v>10697600</v>
       </c>
       <c r="I17" s="3">
-        <v>10218600</v>
+        <v>10011700</v>
       </c>
       <c r="J17" s="3">
-        <v>11106600</v>
+        <v>10881700</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9995600</v>
+        <v>9793200</v>
       </c>
       <c r="E18" s="3">
-        <v>9745500</v>
+        <v>9548200</v>
       </c>
       <c r="F18" s="3">
-        <v>7484500</v>
+        <v>7332900</v>
       </c>
       <c r="G18" s="3">
-        <v>8962700</v>
+        <v>8781200</v>
       </c>
       <c r="H18" s="3">
-        <v>9148700</v>
+        <v>8963400</v>
       </c>
       <c r="I18" s="3">
-        <v>9050100</v>
+        <v>8866800</v>
       </c>
       <c r="J18" s="3">
-        <v>8711900</v>
+        <v>8535500</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3326400</v>
+        <v>-3259000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3832600</v>
+        <v>-3755000</v>
       </c>
       <c r="F20" s="3">
-        <v>-3834600</v>
+        <v>-3756900</v>
       </c>
       <c r="G20" s="3">
-        <v>-3060400</v>
+        <v>-2998400</v>
       </c>
       <c r="H20" s="3">
-        <v>-2601100</v>
+        <v>-2548500</v>
       </c>
       <c r="I20" s="3">
-        <v>-2940600</v>
+        <v>-2881000</v>
       </c>
       <c r="J20" s="3">
-        <v>-3300600</v>
+        <v>-3233700</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,22 +1017,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7340500</v>
+        <v>7187700</v>
       </c>
       <c r="E21" s="3">
-        <v>6636800</v>
+        <v>6497900</v>
       </c>
       <c r="F21" s="3">
-        <v>4576200</v>
+        <v>4477800</v>
       </c>
       <c r="G21" s="3">
-        <v>6482400</v>
+        <v>6347500</v>
       </c>
       <c r="H21" s="3">
-        <v>7345900</v>
+        <v>7192200</v>
       </c>
       <c r="I21" s="3">
-        <v>6756700</v>
+        <v>6615900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6669300</v>
+        <v>6534200</v>
       </c>
       <c r="E23" s="3">
-        <v>5913000</v>
+        <v>5793200</v>
       </c>
       <c r="F23" s="3">
-        <v>3649900</v>
+        <v>3576000</v>
       </c>
       <c r="G23" s="3">
-        <v>5902400</v>
+        <v>5782800</v>
       </c>
       <c r="H23" s="3">
-        <v>6547500</v>
+        <v>6414900</v>
       </c>
       <c r="I23" s="3">
-        <v>6109500</v>
+        <v>5985800</v>
       </c>
       <c r="J23" s="3">
-        <v>5411400</v>
+        <v>5301800</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1945400</v>
+        <v>1906000</v>
       </c>
       <c r="E24" s="3">
-        <v>1823600</v>
+        <v>1786700</v>
       </c>
       <c r="F24" s="3">
-        <v>1217500</v>
+        <v>1192900</v>
       </c>
       <c r="G24" s="3">
-        <v>1726400</v>
+        <v>1691400</v>
       </c>
       <c r="H24" s="3">
-        <v>1842200</v>
+        <v>1804900</v>
       </c>
       <c r="I24" s="3">
-        <v>1901700</v>
+        <v>1863200</v>
       </c>
       <c r="J24" s="3">
-        <v>1626500</v>
+        <v>1593500</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4723900</v>
+        <v>4628200</v>
       </c>
       <c r="E26" s="3">
-        <v>4089300</v>
+        <v>4006500</v>
       </c>
       <c r="F26" s="3">
-        <v>2432400</v>
+        <v>2383200</v>
       </c>
       <c r="G26" s="3">
-        <v>4176000</v>
+        <v>4091400</v>
       </c>
       <c r="H26" s="3">
-        <v>4705300</v>
+        <v>4610100</v>
       </c>
       <c r="I26" s="3">
-        <v>4207800</v>
+        <v>4122500</v>
       </c>
       <c r="J26" s="3">
-        <v>3784900</v>
+        <v>3708300</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4723200</v>
+        <v>4627600</v>
       </c>
       <c r="E27" s="3">
-        <v>4088600</v>
+        <v>4005800</v>
       </c>
       <c r="F27" s="3">
-        <v>2431700</v>
+        <v>2382500</v>
       </c>
       <c r="G27" s="3">
-        <v>4166100</v>
+        <v>4081700</v>
       </c>
       <c r="H27" s="3">
-        <v>4694800</v>
+        <v>4599700</v>
       </c>
       <c r="I27" s="3">
-        <v>4197800</v>
+        <v>4112800</v>
       </c>
       <c r="J27" s="3">
-        <v>3777600</v>
+        <v>3701100</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1233,22 +1233,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-12600</v>
+        <v>-12300</v>
       </c>
       <c r="E29" s="3">
-        <v>-11200</v>
+        <v>-11000</v>
       </c>
       <c r="F29" s="3">
-        <v>-64800</v>
+        <v>-63500</v>
       </c>
       <c r="G29" s="3">
-        <v>-227000</v>
+        <v>-222400</v>
       </c>
       <c r="H29" s="3">
-        <v>-459900</v>
+        <v>-450600</v>
       </c>
       <c r="I29" s="3">
-        <v>41000</v>
+        <v>40200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3326400</v>
+        <v>3259000</v>
       </c>
       <c r="E32" s="3">
-        <v>3832600</v>
+        <v>3755000</v>
       </c>
       <c r="F32" s="3">
-        <v>3834600</v>
+        <v>3756900</v>
       </c>
       <c r="G32" s="3">
-        <v>3060400</v>
+        <v>2998400</v>
       </c>
       <c r="H32" s="3">
-        <v>2601100</v>
+        <v>2548500</v>
       </c>
       <c r="I32" s="3">
-        <v>2940600</v>
+        <v>2881000</v>
       </c>
       <c r="J32" s="3">
-        <v>3300600</v>
+        <v>3233700</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4710600</v>
+        <v>4615200</v>
       </c>
       <c r="E33" s="3">
-        <v>4077400</v>
+        <v>3994800</v>
       </c>
       <c r="F33" s="3">
-        <v>2366900</v>
+        <v>2319000</v>
       </c>
       <c r="G33" s="3">
-        <v>3939100</v>
+        <v>3859300</v>
       </c>
       <c r="H33" s="3">
-        <v>4234900</v>
+        <v>4149100</v>
       </c>
       <c r="I33" s="3">
-        <v>4238900</v>
+        <v>4153000</v>
       </c>
       <c r="J33" s="3">
-        <v>3777600</v>
+        <v>3701100</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4710600</v>
+        <v>4615200</v>
       </c>
       <c r="E35" s="3">
-        <v>4077400</v>
+        <v>3994800</v>
       </c>
       <c r="F35" s="3">
-        <v>2366900</v>
+        <v>2319000</v>
       </c>
       <c r="G35" s="3">
-        <v>3939100</v>
+        <v>3859300</v>
       </c>
       <c r="H35" s="3">
-        <v>4234900</v>
+        <v>4149100</v>
       </c>
       <c r="I35" s="3">
-        <v>4238900</v>
+        <v>4153000</v>
       </c>
       <c r="J35" s="3">
-        <v>3777600</v>
+        <v>3701100</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>107722000</v>
+        <v>105541000</v>
       </c>
       <c r="E41" s="3">
-        <v>97435300</v>
+        <v>95462200</v>
       </c>
       <c r="F41" s="3">
-        <v>56824100</v>
+        <v>55673400</v>
       </c>
       <c r="G41" s="3">
-        <v>45145100</v>
+        <v>44230900</v>
       </c>
       <c r="H41" s="3">
-        <v>100021000</v>
+        <v>97995700</v>
       </c>
       <c r="I41" s="3">
-        <v>40578800</v>
+        <v>39757000</v>
       </c>
       <c r="J41" s="3">
-        <v>39554400</v>
+        <v>38753400</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1507,25 +1507,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>101973000</v>
+        <v>99907600</v>
       </c>
       <c r="E42" s="3">
-        <v>72893500</v>
+        <v>71417400</v>
       </c>
       <c r="F42" s="3">
-        <v>156264000</v>
+        <v>153099000</v>
       </c>
       <c r="G42" s="3">
-        <v>135068000</v>
+        <v>132332000</v>
       </c>
       <c r="H42" s="3">
-        <v>96319700</v>
+        <v>94369100</v>
       </c>
       <c r="I42" s="3">
-        <v>90452400</v>
+        <v>88620700</v>
       </c>
       <c r="J42" s="3">
-        <v>111632000</v>
+        <v>109372000</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1443200</v>
+        <v>1413900</v>
       </c>
       <c r="E47" s="3">
-        <v>1304900</v>
+        <v>1278400</v>
       </c>
       <c r="F47" s="3">
-        <v>1431900</v>
+        <v>1402900</v>
       </c>
       <c r="G47" s="3">
-        <v>1956600</v>
+        <v>1917000</v>
       </c>
       <c r="H47" s="3">
-        <v>1689300</v>
+        <v>1655100</v>
       </c>
       <c r="I47" s="3">
-        <v>1487500</v>
+        <v>1457400</v>
       </c>
       <c r="J47" s="3">
-        <v>2826800</v>
+        <v>2769500</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2390700</v>
+        <v>2342300</v>
       </c>
       <c r="E48" s="3">
-        <v>1809100</v>
+        <v>1772500</v>
       </c>
       <c r="F48" s="3">
-        <v>1993700</v>
+        <v>1953300</v>
       </c>
       <c r="G48" s="3">
-        <v>1273100</v>
+        <v>1247300</v>
       </c>
       <c r="H48" s="3">
-        <v>1212900</v>
+        <v>1188300</v>
       </c>
       <c r="I48" s="3">
-        <v>1300200</v>
+        <v>1273900</v>
       </c>
       <c r="J48" s="3">
-        <v>1459000</v>
+        <v>1429500</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2565400</v>
+        <v>2513500</v>
       </c>
       <c r="E49" s="3">
-        <v>2728900</v>
+        <v>2673600</v>
       </c>
       <c r="F49" s="3">
-        <v>2897600</v>
+        <v>2838900</v>
       </c>
       <c r="G49" s="3">
-        <v>3216500</v>
+        <v>3151400</v>
       </c>
       <c r="H49" s="3">
-        <v>6524400</v>
+        <v>6392200</v>
       </c>
       <c r="I49" s="3">
-        <v>4612000</v>
+        <v>4518700</v>
       </c>
       <c r="J49" s="3">
-        <v>5076600</v>
+        <v>4973800</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2239200</v>
+        <v>2193800</v>
       </c>
       <c r="E52" s="3">
-        <v>1547700</v>
+        <v>1516400</v>
       </c>
       <c r="F52" s="3">
-        <v>1405500</v>
+        <v>1377000</v>
       </c>
       <c r="G52" s="3">
-        <v>2108800</v>
+        <v>2066100</v>
       </c>
       <c r="H52" s="3">
-        <v>29822200</v>
+        <v>29218200</v>
       </c>
       <c r="I52" s="3">
-        <v>5720400</v>
+        <v>5604600</v>
       </c>
       <c r="J52" s="3">
-        <v>412200</v>
+        <v>403900</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>718427000</v>
+        <v>703878000</v>
       </c>
       <c r="E54" s="3">
-        <v>647710000</v>
+        <v>634593000</v>
       </c>
       <c r="F54" s="3">
-        <v>689681000</v>
+        <v>675714000</v>
       </c>
       <c r="G54" s="3">
-        <v>649218000</v>
+        <v>636071000</v>
       </c>
       <c r="H54" s="3">
-        <v>624104000</v>
+        <v>611465000</v>
       </c>
       <c r="I54" s="3">
-        <v>593761000</v>
+        <v>581736000</v>
       </c>
       <c r="J54" s="3">
-        <v>605369000</v>
+        <v>593110000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6507800</v>
+        <v>6376000</v>
       </c>
       <c r="E57" s="3">
-        <v>5721700</v>
+        <v>5605900</v>
       </c>
       <c r="F57" s="3">
-        <v>6040000</v>
+        <v>5917700</v>
       </c>
       <c r="G57" s="3">
-        <v>5272400</v>
+        <v>5165700</v>
       </c>
       <c r="H57" s="3">
-        <v>4561800</v>
+        <v>4469400</v>
       </c>
       <c r="I57" s="3">
-        <v>5525200</v>
+        <v>5413300</v>
       </c>
       <c r="J57" s="3">
-        <v>1073900</v>
+        <v>1052200</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>548500</v>
+        <v>537400</v>
       </c>
       <c r="E59" s="3">
-        <v>277300</v>
+        <v>271600</v>
       </c>
       <c r="F59" s="3">
-        <v>230900</v>
+        <v>226300</v>
       </c>
       <c r="G59" s="3">
-        <v>172000</v>
+        <v>168600</v>
       </c>
       <c r="H59" s="3">
-        <v>198500</v>
+        <v>194500</v>
       </c>
       <c r="I59" s="3">
-        <v>159500</v>
+        <v>156200</v>
       </c>
       <c r="J59" s="3">
-        <v>2106200</v>
+        <v>2063500</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>62023800</v>
+        <v>60767800</v>
       </c>
       <c r="E61" s="3">
-        <v>66867400</v>
+        <v>65513300</v>
       </c>
       <c r="F61" s="3">
-        <v>79184300</v>
+        <v>77580800</v>
       </c>
       <c r="G61" s="3">
-        <v>85816500</v>
+        <v>84078700</v>
       </c>
       <c r="H61" s="3">
-        <v>80184100</v>
+        <v>78560300</v>
       </c>
       <c r="I61" s="3">
-        <v>71445700</v>
+        <v>69998900</v>
       </c>
       <c r="J61" s="3">
-        <v>75805700</v>
+        <v>74270500</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1656900</v>
+        <v>1623300</v>
       </c>
       <c r="E62" s="3">
-        <v>1909700</v>
+        <v>1871000</v>
       </c>
       <c r="F62" s="3">
-        <v>2153800</v>
+        <v>2110200</v>
       </c>
       <c r="G62" s="3">
-        <v>1905000</v>
+        <v>1866500</v>
       </c>
       <c r="H62" s="3">
-        <v>2672600</v>
+        <v>2618500</v>
       </c>
       <c r="I62" s="3">
-        <v>936300</v>
+        <v>917300</v>
       </c>
       <c r="J62" s="3">
-        <v>983900</v>
+        <v>964000</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>674816000</v>
+        <v>661151000</v>
       </c>
       <c r="E66" s="3">
-        <v>605583000</v>
+        <v>593319000</v>
       </c>
       <c r="F66" s="3">
-        <v>649127000</v>
+        <v>635982000</v>
       </c>
       <c r="G66" s="3">
-        <v>608998000</v>
+        <v>596666000</v>
       </c>
       <c r="H66" s="3">
-        <v>584888000</v>
+        <v>573043000</v>
       </c>
       <c r="I66" s="3">
-        <v>554747000</v>
+        <v>543513000</v>
       </c>
       <c r="J66" s="3">
-        <v>567111000</v>
+        <v>555626000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26317100</v>
+        <v>25784200</v>
       </c>
       <c r="E72" s="3">
-        <v>24156700</v>
+        <v>23667500</v>
       </c>
       <c r="F72" s="3">
-        <v>22046500</v>
+        <v>21600100</v>
       </c>
       <c r="G72" s="3">
-        <v>21658100</v>
+        <v>21219500</v>
       </c>
       <c r="H72" s="3">
-        <v>21047400</v>
+        <v>20621100</v>
       </c>
       <c r="I72" s="3">
-        <v>19783500</v>
+        <v>19382900</v>
       </c>
       <c r="J72" s="3">
-        <v>18548100</v>
+        <v>18172500</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43610700</v>
+        <v>42727500</v>
       </c>
       <c r="E76" s="3">
-        <v>42127100</v>
+        <v>41274000</v>
       </c>
       <c r="F76" s="3">
-        <v>40553600</v>
+        <v>39732400</v>
       </c>
       <c r="G76" s="3">
-        <v>40220100</v>
+        <v>39405600</v>
       </c>
       <c r="H76" s="3">
-        <v>39215700</v>
+        <v>38421500</v>
       </c>
       <c r="I76" s="3">
-        <v>39013200</v>
+        <v>38223100</v>
       </c>
       <c r="J76" s="3">
-        <v>38258200</v>
+        <v>37483400</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4710600</v>
+        <v>4615200</v>
       </c>
       <c r="E81" s="3">
-        <v>4077400</v>
+        <v>3994800</v>
       </c>
       <c r="F81" s="3">
-        <v>2366900</v>
+        <v>2319000</v>
       </c>
       <c r="G81" s="3">
-        <v>3939100</v>
+        <v>3859300</v>
       </c>
       <c r="H81" s="3">
-        <v>4234900</v>
+        <v>4149100</v>
       </c>
       <c r="I81" s="3">
-        <v>4238900</v>
+        <v>4153000</v>
       </c>
       <c r="J81" s="3">
-        <v>3777600</v>
+        <v>3701100</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,22 +2509,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>667000</v>
+        <v>653500</v>
       </c>
       <c r="E83" s="3">
-        <v>719300</v>
+        <v>704700</v>
       </c>
       <c r="F83" s="3">
-        <v>920400</v>
+        <v>901800</v>
       </c>
       <c r="G83" s="3">
-        <v>576300</v>
+        <v>564700</v>
       </c>
       <c r="H83" s="3">
-        <v>793400</v>
+        <v>777300</v>
       </c>
       <c r="I83" s="3">
-        <v>643200</v>
+        <v>630100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13350500</v>
+        <v>13080100</v>
       </c>
       <c r="E89" s="3">
-        <v>28997000</v>
+        <v>28409800</v>
       </c>
       <c r="F89" s="3">
-        <v>26654600</v>
+        <v>26114800</v>
       </c>
       <c r="G89" s="3">
-        <v>-3010700</v>
+        <v>-2949800</v>
       </c>
       <c r="H89" s="3">
-        <v>6991500</v>
+        <v>6849900</v>
       </c>
       <c r="I89" s="3">
-        <v>15911900</v>
+        <v>15589700</v>
       </c>
       <c r="J89" s="3">
-        <v>7173500</v>
+        <v>7028200</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2729,7 +2729,7 @@
         <v>5</v>
       </c>
       <c r="J91" s="3">
-        <v>-223000</v>
+        <v>-218500</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1202300</v>
+        <v>-1178000</v>
       </c>
       <c r="E94" s="3">
-        <v>6787700</v>
+        <v>6650300</v>
       </c>
       <c r="F94" s="3">
-        <v>-7586400</v>
+        <v>-7432800</v>
       </c>
       <c r="G94" s="3">
-        <v>-136300</v>
+        <v>-133500</v>
       </c>
       <c r="H94" s="3">
-        <v>109800</v>
+        <v>107600</v>
       </c>
       <c r="I94" s="3">
-        <v>-8489600</v>
+        <v>-8317700</v>
       </c>
       <c r="J94" s="3">
-        <v>-9535100</v>
+        <v>-9342000</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2503900</v>
+        <v>-2453200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1875300</v>
+        <v>-1837300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1893100</v>
+        <v>-1854800</v>
       </c>
       <c r="G96" s="3">
-        <v>-2958500</v>
+        <v>-2898500</v>
       </c>
       <c r="H96" s="3">
-        <v>-3019300</v>
+        <v>-2958200</v>
       </c>
       <c r="I96" s="3">
-        <v>-2902200</v>
+        <v>-2843400</v>
       </c>
       <c r="J96" s="3">
-        <v>-3020000</v>
+        <v>-2958800</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1551700</v>
+        <v>-1520300</v>
       </c>
       <c r="E100" s="3">
-        <v>-6400000</v>
+        <v>-6270400</v>
       </c>
       <c r="F100" s="3">
-        <v>-285900</v>
+        <v>-280100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1827000</v>
+        <v>-1790000</v>
       </c>
       <c r="H100" s="3">
-        <v>1733700</v>
+        <v>1698500</v>
       </c>
       <c r="I100" s="3">
-        <v>-4461200</v>
+        <v>-4370800</v>
       </c>
       <c r="J100" s="3">
-        <v>1295600</v>
+        <v>1269400</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,25 +2967,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>567700</v>
+        <v>556200</v>
       </c>
       <c r="E101" s="3">
-        <v>-708700</v>
+        <v>-694300</v>
       </c>
       <c r="F101" s="3">
-        <v>-1378300</v>
+        <v>-1350400</v>
       </c>
       <c r="G101" s="3">
-        <v>2761900</v>
+        <v>2706000</v>
       </c>
       <c r="H101" s="3">
-        <v>2358300</v>
+        <v>2310500</v>
       </c>
       <c r="I101" s="3">
-        <v>-1751500</v>
+        <v>-1716100</v>
       </c>
       <c r="J101" s="3">
-        <v>-957500</v>
+        <v>-938100</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11164200</v>
+        <v>10938100</v>
       </c>
       <c r="E102" s="3">
-        <v>28676100</v>
+        <v>28095400</v>
       </c>
       <c r="F102" s="3">
-        <v>17404000</v>
+        <v>17051600</v>
       </c>
       <c r="G102" s="3">
-        <v>-2212100</v>
+        <v>-2167300</v>
       </c>
       <c r="H102" s="3">
-        <v>11193300</v>
+        <v>10966600</v>
       </c>
       <c r="I102" s="3">
-        <v>1209600</v>
+        <v>1185100</v>
       </c>
       <c r="J102" s="3">
-        <v>-2023500</v>
+        <v>-1982500</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/ANZGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANZGY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>ANZGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,81 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42643</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15305700</v>
+        <v>32286600</v>
       </c>
       <c r="E8" s="3">
-        <v>12660700</v>
+        <v>15275000</v>
       </c>
       <c r="F8" s="3">
-        <v>15835400</v>
+        <v>12635300</v>
       </c>
       <c r="G8" s="3">
-        <v>20147200</v>
+        <v>15803600</v>
       </c>
       <c r="H8" s="3">
-        <v>19661000</v>
+        <v>20106800</v>
       </c>
       <c r="I8" s="3">
-        <v>18878500</v>
+        <v>19621600</v>
       </c>
       <c r="J8" s="3">
+        <v>18840600</v>
+      </c>
+      <c r="K8" s="3">
         <v>19417200</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,9 +764,12 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -785,9 +794,12 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -799,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -825,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,9 +868,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -879,36 +898,42 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-374700</v>
+        <v>-326700</v>
       </c>
       <c r="E15" s="3">
-        <v>-413600</v>
+        <v>-374000</v>
       </c>
       <c r="F15" s="3">
-        <v>-556200</v>
+        <v>-412800</v>
       </c>
       <c r="G15" s="3">
-        <v>-449900</v>
+        <v>-555100</v>
       </c>
       <c r="H15" s="3">
-        <v>-641800</v>
+        <v>-449000</v>
       </c>
       <c r="I15" s="3">
-        <v>-467400</v>
+        <v>-640500</v>
       </c>
       <c r="J15" s="3">
+        <v>-466500</v>
+      </c>
+      <c r="K15" s="3">
         <v>-956200</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5512500</v>
+        <v>21717200</v>
       </c>
       <c r="E17" s="3">
-        <v>3112500</v>
+        <v>5501400</v>
       </c>
       <c r="F17" s="3">
-        <v>8502500</v>
+        <v>3106200</v>
       </c>
       <c r="G17" s="3">
-        <v>11366000</v>
+        <v>8485400</v>
       </c>
       <c r="H17" s="3">
-        <v>10697600</v>
+        <v>11343200</v>
       </c>
       <c r="I17" s="3">
-        <v>10011700</v>
+        <v>10676100</v>
       </c>
       <c r="J17" s="3">
+        <v>9991600</v>
+      </c>
+      <c r="K17" s="3">
         <v>10881700</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9793200</v>
+        <v>10569400</v>
       </c>
       <c r="E18" s="3">
-        <v>9548200</v>
+        <v>9773600</v>
       </c>
       <c r="F18" s="3">
-        <v>7332900</v>
+        <v>9529000</v>
       </c>
       <c r="G18" s="3">
-        <v>8781200</v>
+        <v>7318200</v>
       </c>
       <c r="H18" s="3">
-        <v>8963400</v>
+        <v>8763600</v>
       </c>
       <c r="I18" s="3">
-        <v>8866800</v>
+        <v>8945400</v>
       </c>
       <c r="J18" s="3">
+        <v>8849000</v>
+      </c>
+      <c r="K18" s="3">
         <v>8535500</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,62 +1016,69 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3259000</v>
+        <v>-4050900</v>
       </c>
       <c r="E20" s="3">
-        <v>-3755000</v>
+        <v>-3252500</v>
       </c>
       <c r="F20" s="3">
-        <v>-3756900</v>
+        <v>-3747400</v>
       </c>
       <c r="G20" s="3">
-        <v>-2998400</v>
+        <v>-3749400</v>
       </c>
       <c r="H20" s="3">
-        <v>-2548500</v>
+        <v>-2992400</v>
       </c>
       <c r="I20" s="3">
-        <v>-2881000</v>
+        <v>-2543400</v>
       </c>
       <c r="J20" s="3">
+        <v>-2875300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3233700</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7187700</v>
+        <v>7118900</v>
       </c>
       <c r="E21" s="3">
-        <v>6497900</v>
+        <v>7176800</v>
       </c>
       <c r="F21" s="3">
-        <v>4477800</v>
+        <v>6488700</v>
       </c>
       <c r="G21" s="3">
-        <v>6347500</v>
+        <v>4473700</v>
       </c>
       <c r="H21" s="3">
-        <v>7192200</v>
+        <v>6337800</v>
       </c>
       <c r="I21" s="3">
-        <v>6615900</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>7182000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6606000</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1064,63 +1103,72 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6534200</v>
+        <v>6518500</v>
       </c>
       <c r="E23" s="3">
-        <v>5793200</v>
+        <v>6521100</v>
       </c>
       <c r="F23" s="3">
-        <v>3576000</v>
+        <v>5781600</v>
       </c>
       <c r="G23" s="3">
-        <v>5782800</v>
+        <v>3568900</v>
       </c>
       <c r="H23" s="3">
-        <v>6414900</v>
+        <v>5771200</v>
       </c>
       <c r="I23" s="3">
-        <v>5985800</v>
+        <v>6402100</v>
       </c>
       <c r="J23" s="3">
+        <v>5973800</v>
+      </c>
+      <c r="K23" s="3">
         <v>5301800</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1906000</v>
+        <v>1908000</v>
       </c>
       <c r="E24" s="3">
-        <v>1786700</v>
+        <v>1902200</v>
       </c>
       <c r="F24" s="3">
-        <v>1192900</v>
+        <v>1783100</v>
       </c>
       <c r="G24" s="3">
-        <v>1691400</v>
+        <v>1190500</v>
       </c>
       <c r="H24" s="3">
-        <v>1804900</v>
+        <v>1688000</v>
       </c>
       <c r="I24" s="3">
-        <v>1863200</v>
+        <v>1801200</v>
       </c>
       <c r="J24" s="3">
+        <v>1859500</v>
+      </c>
+      <c r="K24" s="3">
         <v>1593500</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4628200</v>
+        <v>4610500</v>
       </c>
       <c r="E26" s="3">
-        <v>4006500</v>
+        <v>4618900</v>
       </c>
       <c r="F26" s="3">
-        <v>2383200</v>
+        <v>3998500</v>
       </c>
       <c r="G26" s="3">
-        <v>4091400</v>
+        <v>2378400</v>
       </c>
       <c r="H26" s="3">
-        <v>4610100</v>
+        <v>4083200</v>
       </c>
       <c r="I26" s="3">
-        <v>4122500</v>
+        <v>4600800</v>
       </c>
       <c r="J26" s="3">
+        <v>4114300</v>
+      </c>
+      <c r="K26" s="3">
         <v>3708300</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4627600</v>
+        <v>4592400</v>
       </c>
       <c r="E27" s="3">
-        <v>4005800</v>
+        <v>4618300</v>
       </c>
       <c r="F27" s="3">
-        <v>2382500</v>
+        <v>3997800</v>
       </c>
       <c r="G27" s="3">
-        <v>4081700</v>
+        <v>2377700</v>
       </c>
       <c r="H27" s="3">
-        <v>4599700</v>
+        <v>4073500</v>
       </c>
       <c r="I27" s="3">
-        <v>4112800</v>
+        <v>4590500</v>
       </c>
       <c r="J27" s="3">
+        <v>4104600</v>
+      </c>
+      <c r="K27" s="3">
         <v>3701100</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,36 +1283,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-12300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-11000</v>
       </c>
-      <c r="F29" s="3">
-        <v>-63500</v>
-      </c>
       <c r="G29" s="3">
-        <v>-222400</v>
+        <v>-63400</v>
       </c>
       <c r="H29" s="3">
-        <v>-450600</v>
+        <v>-221900</v>
       </c>
       <c r="I29" s="3">
-        <v>40200</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>-449700</v>
+      </c>
+      <c r="J29" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3259000</v>
+        <v>4050900</v>
       </c>
       <c r="E32" s="3">
-        <v>3755000</v>
+        <v>3252500</v>
       </c>
       <c r="F32" s="3">
-        <v>3756900</v>
+        <v>3747400</v>
       </c>
       <c r="G32" s="3">
-        <v>2998400</v>
+        <v>3749400</v>
       </c>
       <c r="H32" s="3">
-        <v>2548500</v>
+        <v>2992400</v>
       </c>
       <c r="I32" s="3">
-        <v>2881000</v>
+        <v>2543400</v>
       </c>
       <c r="J32" s="3">
+        <v>2875300</v>
+      </c>
+      <c r="K32" s="3">
         <v>3233700</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4615200</v>
+        <v>4592400</v>
       </c>
       <c r="E33" s="3">
-        <v>3994800</v>
+        <v>4606000</v>
       </c>
       <c r="F33" s="3">
-        <v>2319000</v>
+        <v>3986800</v>
       </c>
       <c r="G33" s="3">
-        <v>3859300</v>
+        <v>2314300</v>
       </c>
       <c r="H33" s="3">
-        <v>4149100</v>
+        <v>3851600</v>
       </c>
       <c r="I33" s="3">
-        <v>4153000</v>
+        <v>4140800</v>
       </c>
       <c r="J33" s="3">
+        <v>4144700</v>
+      </c>
+      <c r="K33" s="3">
         <v>3701100</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4615200</v>
+        <v>4592400</v>
       </c>
       <c r="E35" s="3">
-        <v>3994800</v>
+        <v>4606000</v>
       </c>
       <c r="F35" s="3">
-        <v>2319000</v>
+        <v>3986800</v>
       </c>
       <c r="G35" s="3">
-        <v>3859300</v>
+        <v>2314300</v>
       </c>
       <c r="H35" s="3">
-        <v>4149100</v>
+        <v>3851600</v>
       </c>
       <c r="I35" s="3">
-        <v>4153000</v>
+        <v>4140800</v>
       </c>
       <c r="J35" s="3">
+        <v>4144700</v>
+      </c>
+      <c r="K35" s="3">
         <v>3701100</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42643</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,62 +1559,69 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>105541000</v>
+        <v>98337500</v>
       </c>
       <c r="E41" s="3">
-        <v>95462200</v>
+        <v>105329000</v>
       </c>
       <c r="F41" s="3">
-        <v>55673400</v>
+        <v>95270800</v>
       </c>
       <c r="G41" s="3">
-        <v>44230900</v>
+        <v>55561800</v>
       </c>
       <c r="H41" s="3">
-        <v>97995700</v>
+        <v>44142200</v>
       </c>
       <c r="I41" s="3">
-        <v>39757000</v>
+        <v>97799200</v>
       </c>
       <c r="J41" s="3">
+        <v>39677300</v>
+      </c>
+      <c r="K41" s="3">
         <v>38753400</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>99907600</v>
+        <v>89078300</v>
       </c>
       <c r="E42" s="3">
-        <v>71417400</v>
+        <v>99707200</v>
       </c>
       <c r="F42" s="3">
-        <v>153099000</v>
+        <v>71274200</v>
       </c>
       <c r="G42" s="3">
-        <v>132332000</v>
+        <v>152792000</v>
       </c>
       <c r="H42" s="3">
-        <v>94369100</v>
+        <v>132067000</v>
       </c>
       <c r="I42" s="3">
-        <v>88620700</v>
+        <v>94179900</v>
       </c>
       <c r="J42" s="3">
+        <v>88443000</v>
+      </c>
+      <c r="K42" s="3">
         <v>109372000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1554,9 +1646,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1581,9 +1676,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1608,9 +1706,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1635,90 +1736,102 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1413900</v>
+        <v>1519800</v>
       </c>
       <c r="E47" s="3">
-        <v>1278400</v>
+        <v>1411100</v>
       </c>
       <c r="F47" s="3">
-        <v>1402900</v>
+        <v>1275900</v>
       </c>
       <c r="G47" s="3">
-        <v>1917000</v>
+        <v>1400100</v>
       </c>
       <c r="H47" s="3">
-        <v>1655100</v>
+        <v>1913200</v>
       </c>
       <c r="I47" s="3">
-        <v>1457400</v>
+        <v>1651800</v>
       </c>
       <c r="J47" s="3">
+        <v>1454500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2769500</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2342300</v>
+        <v>1328300</v>
       </c>
       <c r="E48" s="3">
-        <v>1772500</v>
+        <v>1572900</v>
       </c>
       <c r="F48" s="3">
-        <v>1953300</v>
+        <v>1768900</v>
       </c>
       <c r="G48" s="3">
-        <v>1247300</v>
+        <v>1949400</v>
       </c>
       <c r="H48" s="3">
-        <v>1188300</v>
+        <v>1244800</v>
       </c>
       <c r="I48" s="3">
-        <v>1273900</v>
+        <v>1186000</v>
       </c>
       <c r="J48" s="3">
+        <v>1271400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1429500</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2513500</v>
+        <v>2625500</v>
       </c>
       <c r="E49" s="3">
-        <v>2673600</v>
+        <v>2508400</v>
       </c>
       <c r="F49" s="3">
-        <v>2838900</v>
+        <v>2668200</v>
       </c>
       <c r="G49" s="3">
-        <v>3151400</v>
+        <v>2833200</v>
       </c>
       <c r="H49" s="3">
-        <v>6392200</v>
+        <v>3145100</v>
       </c>
       <c r="I49" s="3">
-        <v>4518700</v>
+        <v>6379400</v>
       </c>
       <c r="J49" s="3">
+        <v>4509600</v>
+      </c>
+      <c r="K49" s="3">
         <v>4973800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2193800</v>
+        <v>2158400</v>
       </c>
       <c r="E52" s="3">
-        <v>1516400</v>
+        <v>2189400</v>
       </c>
       <c r="F52" s="3">
-        <v>1377000</v>
+        <v>1513300</v>
       </c>
       <c r="G52" s="3">
-        <v>2066100</v>
+        <v>1374200</v>
       </c>
       <c r="H52" s="3">
-        <v>29218200</v>
+        <v>2062000</v>
       </c>
       <c r="I52" s="3">
-        <v>5604600</v>
+        <v>29159600</v>
       </c>
       <c r="J52" s="3">
+        <v>5593300</v>
+      </c>
+      <c r="K52" s="3">
         <v>403900</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>703878000</v>
+        <v>715336000</v>
       </c>
       <c r="E54" s="3">
-        <v>634593000</v>
+        <v>702467000</v>
       </c>
       <c r="F54" s="3">
-        <v>675714000</v>
+        <v>633321000</v>
       </c>
       <c r="G54" s="3">
-        <v>636071000</v>
+        <v>674359000</v>
       </c>
       <c r="H54" s="3">
-        <v>611465000</v>
+        <v>634796000</v>
       </c>
       <c r="I54" s="3">
-        <v>581736000</v>
+        <v>610239000</v>
       </c>
       <c r="J54" s="3">
+        <v>580570000</v>
+      </c>
+      <c r="K54" s="3">
         <v>593110000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,35 +2007,39 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6376000</v>
+        <v>9734100</v>
       </c>
       <c r="E57" s="3">
-        <v>5605900</v>
+        <v>6363200</v>
       </c>
       <c r="F57" s="3">
-        <v>5917700</v>
+        <v>5594600</v>
       </c>
       <c r="G57" s="3">
-        <v>5165700</v>
+        <v>5905800</v>
       </c>
       <c r="H57" s="3">
-        <v>4469400</v>
+        <v>5155300</v>
       </c>
       <c r="I57" s="3">
-        <v>5413300</v>
+        <v>4460400</v>
       </c>
       <c r="J57" s="3">
+        <v>5402400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1052200</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1931,36 +2064,42 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>537400</v>
+        <v>197300</v>
       </c>
       <c r="E59" s="3">
-        <v>271600</v>
+        <v>536400</v>
       </c>
       <c r="F59" s="3">
-        <v>226300</v>
+        <v>271100</v>
       </c>
       <c r="G59" s="3">
-        <v>168600</v>
+        <v>225800</v>
       </c>
       <c r="H59" s="3">
-        <v>194500</v>
+        <v>168200</v>
       </c>
       <c r="I59" s="3">
-        <v>156200</v>
+        <v>194100</v>
       </c>
       <c r="J59" s="3">
+        <v>155900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2063500</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1985,63 +2124,72 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>60767800</v>
+        <v>75061100</v>
       </c>
       <c r="E61" s="3">
-        <v>65513300</v>
+        <v>60645900</v>
       </c>
       <c r="F61" s="3">
-        <v>77580800</v>
+        <v>65381900</v>
       </c>
       <c r="G61" s="3">
-        <v>84078700</v>
+        <v>77425200</v>
       </c>
       <c r="H61" s="3">
-        <v>78560300</v>
+        <v>83910100</v>
       </c>
       <c r="I61" s="3">
-        <v>69998900</v>
+        <v>78402800</v>
       </c>
       <c r="J61" s="3">
+        <v>69858500</v>
+      </c>
+      <c r="K61" s="3">
         <v>74270500</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1623300</v>
+        <v>1532100</v>
       </c>
       <c r="E62" s="3">
-        <v>1871000</v>
+        <v>1620100</v>
       </c>
       <c r="F62" s="3">
-        <v>2110200</v>
+        <v>1867200</v>
       </c>
       <c r="G62" s="3">
-        <v>1866500</v>
+        <v>2106000</v>
       </c>
       <c r="H62" s="3">
-        <v>2618500</v>
+        <v>1862700</v>
       </c>
       <c r="I62" s="3">
-        <v>917300</v>
+        <v>2613200</v>
       </c>
       <c r="J62" s="3">
+        <v>915500</v>
+      </c>
+      <c r="K62" s="3">
         <v>964000</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>661151000</v>
+        <v>670354000</v>
       </c>
       <c r="E66" s="3">
-        <v>593319000</v>
+        <v>659825000</v>
       </c>
       <c r="F66" s="3">
-        <v>635982000</v>
+        <v>592129000</v>
       </c>
       <c r="G66" s="3">
-        <v>596666000</v>
+        <v>634706000</v>
       </c>
       <c r="H66" s="3">
-        <v>573043000</v>
+        <v>595469000</v>
       </c>
       <c r="I66" s="3">
-        <v>543513000</v>
+        <v>571894000</v>
       </c>
       <c r="J66" s="3">
+        <v>542423000</v>
+      </c>
+      <c r="K66" s="3">
         <v>555626000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25784200</v>
+        <v>27328000</v>
       </c>
       <c r="E72" s="3">
-        <v>23667500</v>
+        <v>25732500</v>
       </c>
       <c r="F72" s="3">
-        <v>21600100</v>
+        <v>23620000</v>
       </c>
       <c r="G72" s="3">
-        <v>21219500</v>
+        <v>21556700</v>
       </c>
       <c r="H72" s="3">
-        <v>20621100</v>
+        <v>21177000</v>
       </c>
       <c r="I72" s="3">
-        <v>19382900</v>
+        <v>20579800</v>
       </c>
       <c r="J72" s="3">
+        <v>19344000</v>
+      </c>
+      <c r="K72" s="3">
         <v>18172500</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42727500</v>
+        <v>44982000</v>
       </c>
       <c r="E76" s="3">
-        <v>41274000</v>
+        <v>42641800</v>
       </c>
       <c r="F76" s="3">
-        <v>39732400</v>
+        <v>41191300</v>
       </c>
       <c r="G76" s="3">
-        <v>39405600</v>
+        <v>39652700</v>
       </c>
       <c r="H76" s="3">
-        <v>38421500</v>
+        <v>39326600</v>
       </c>
       <c r="I76" s="3">
-        <v>38223100</v>
+        <v>38344500</v>
       </c>
       <c r="J76" s="3">
+        <v>38146500</v>
+      </c>
+      <c r="K76" s="3">
         <v>37483400</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42643</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4615200</v>
+        <v>4592400</v>
       </c>
       <c r="E81" s="3">
-        <v>3994800</v>
+        <v>4606000</v>
       </c>
       <c r="F81" s="3">
-        <v>2319000</v>
+        <v>3986800</v>
       </c>
       <c r="G81" s="3">
-        <v>3859300</v>
+        <v>2314300</v>
       </c>
       <c r="H81" s="3">
-        <v>4149100</v>
+        <v>3851600</v>
       </c>
       <c r="I81" s="3">
-        <v>4153000</v>
+        <v>4140800</v>
       </c>
       <c r="J81" s="3">
+        <v>4144700</v>
+      </c>
+      <c r="K81" s="3">
         <v>3701100</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>653500</v>
+        <v>597200</v>
       </c>
       <c r="E83" s="3">
-        <v>704700</v>
+        <v>652200</v>
       </c>
       <c r="F83" s="3">
-        <v>901800</v>
+        <v>703300</v>
       </c>
       <c r="G83" s="3">
-        <v>564700</v>
+        <v>900000</v>
       </c>
       <c r="H83" s="3">
-        <v>777300</v>
+        <v>563500</v>
       </c>
       <c r="I83" s="3">
-        <v>630100</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>775800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>628900</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13080100</v>
+        <v>4197700</v>
       </c>
       <c r="E89" s="3">
-        <v>28409800</v>
+        <v>13053900</v>
       </c>
       <c r="F89" s="3">
-        <v>26114800</v>
+        <v>28352800</v>
       </c>
       <c r="G89" s="3">
-        <v>-2949800</v>
+        <v>26062500</v>
       </c>
       <c r="H89" s="3">
-        <v>6849900</v>
+        <v>-2943900</v>
       </c>
       <c r="I89" s="3">
-        <v>15589700</v>
+        <v>6836200</v>
       </c>
       <c r="J89" s="3">
+        <v>15558400</v>
+      </c>
+      <c r="K89" s="3">
         <v>7028200</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-218500</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1178000</v>
+        <v>-6913800</v>
       </c>
       <c r="E94" s="3">
-        <v>6650300</v>
+        <v>-1175600</v>
       </c>
       <c r="F94" s="3">
-        <v>-7432800</v>
+        <v>6636900</v>
       </c>
       <c r="G94" s="3">
-        <v>-133500</v>
+        <v>-7417900</v>
       </c>
       <c r="H94" s="3">
-        <v>107600</v>
+        <v>-133300</v>
       </c>
       <c r="I94" s="3">
-        <v>-8317700</v>
+        <v>107400</v>
       </c>
       <c r="J94" s="3">
+        <v>-8301000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9342000</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2453200</v>
+        <v>-2833900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1837300</v>
+        <v>-2448200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1854800</v>
+        <v>-1833600</v>
       </c>
       <c r="G96" s="3">
-        <v>-2898500</v>
+        <v>-1851100</v>
       </c>
       <c r="H96" s="3">
-        <v>-2958200</v>
+        <v>-2892700</v>
       </c>
       <c r="I96" s="3">
-        <v>-2843400</v>
+        <v>-2952300</v>
       </c>
       <c r="J96" s="3">
+        <v>-2837700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2958800</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1520300</v>
+        <v>2837100</v>
       </c>
       <c r="E100" s="3">
-        <v>-6270400</v>
+        <v>-1517200</v>
       </c>
       <c r="F100" s="3">
-        <v>-280100</v>
+        <v>-6257800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1790000</v>
+        <v>-279500</v>
       </c>
       <c r="H100" s="3">
-        <v>1698500</v>
+        <v>-1786400</v>
       </c>
       <c r="I100" s="3">
-        <v>-4370800</v>
+        <v>1695100</v>
       </c>
       <c r="J100" s="3">
+        <v>-4362100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1269400</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>556200</v>
+        <v>-106800</v>
       </c>
       <c r="E101" s="3">
-        <v>-694300</v>
+        <v>555100</v>
       </c>
       <c r="F101" s="3">
-        <v>-1350400</v>
+        <v>-692900</v>
       </c>
       <c r="G101" s="3">
-        <v>2706000</v>
+        <v>-1347700</v>
       </c>
       <c r="H101" s="3">
-        <v>2310500</v>
+        <v>2700600</v>
       </c>
       <c r="I101" s="3">
-        <v>-1716100</v>
+        <v>2305900</v>
       </c>
       <c r="J101" s="3">
+        <v>-1712600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-938100</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10938100</v>
+        <v>14200</v>
       </c>
       <c r="E102" s="3">
-        <v>28095400</v>
+        <v>10916200</v>
       </c>
       <c r="F102" s="3">
-        <v>17051600</v>
+        <v>28039000</v>
       </c>
       <c r="G102" s="3">
-        <v>-2167300</v>
+        <v>17017400</v>
       </c>
       <c r="H102" s="3">
-        <v>10966600</v>
+        <v>-2162900</v>
       </c>
       <c r="I102" s="3">
-        <v>1185100</v>
+        <v>10944700</v>
       </c>
       <c r="J102" s="3">
+        <v>1182700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1982500</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
